--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2427,28 +2427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.8451245984964</v>
+        <v>174.3466750935098</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.6057807732801</v>
+        <v>238.5488124952886</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.6055097662073</v>
+        <v>215.7820486361684</v>
       </c>
       <c r="AD2" t="n">
-        <v>137845.1245984964</v>
+        <v>174346.6750935098</v>
       </c>
       <c r="AE2" t="n">
-        <v>188605.7807732801</v>
+        <v>238548.8124952886</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.401187652213579e-06</v>
+        <v>4.442825822169905e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>170605.5097662073</v>
+        <v>215782.0486361684</v>
       </c>
     </row>
     <row r="3">
@@ -2533,28 +2533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.6603730323034</v>
+        <v>135.0516637682105</v>
       </c>
       <c r="AB3" t="n">
-        <v>151.4104043738373</v>
+        <v>184.7836444264908</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.9600078862768</v>
+        <v>167.1481527479523</v>
       </c>
       <c r="AD3" t="n">
-        <v>110660.3730323034</v>
+        <v>135051.6637682104</v>
       </c>
       <c r="AE3" t="n">
-        <v>151410.4043738373</v>
+        <v>184783.6444264908</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.918505502901905e-06</v>
+        <v>5.39999928722115e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.208333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>136960.0078862768</v>
+        <v>167148.1527479523</v>
       </c>
     </row>
     <row r="4">
@@ -2639,28 +2639,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>93.39252481737404</v>
+        <v>129.8939858038365</v>
       </c>
       <c r="AB4" t="n">
-        <v>127.783772642485</v>
+        <v>177.7266818949451</v>
       </c>
       <c r="AC4" t="n">
-        <v>115.5882687271713</v>
+        <v>160.7646968159059</v>
       </c>
       <c r="AD4" t="n">
-        <v>93392.52481737404</v>
+        <v>129893.9858038365</v>
       </c>
       <c r="AE4" t="n">
-        <v>127783.772642485</v>
+        <v>177726.6818949451</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.127248612530823e-06</v>
+        <v>5.786228691992764e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.856770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>115588.2687271713</v>
+        <v>160764.6968159059</v>
       </c>
     </row>
     <row r="5">
@@ -2745,28 +2745,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>90.69373093859545</v>
+        <v>127.1951919250579</v>
       </c>
       <c r="AB5" t="n">
-        <v>124.091163795159</v>
+        <v>174.0340730476191</v>
       </c>
       <c r="AC5" t="n">
-        <v>112.2480772856239</v>
+        <v>157.4245053743585</v>
       </c>
       <c r="AD5" t="n">
-        <v>90693.73093859546</v>
+        <v>127195.1919250579</v>
       </c>
       <c r="AE5" t="n">
-        <v>124091.1637951591</v>
+        <v>174034.0730476191</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.230161323070228e-06</v>
+        <v>5.976644150523239e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.70703125</v>
       </c>
       <c r="AH5" t="n">
-        <v>112248.0772856239</v>
+        <v>157424.5053743585</v>
       </c>
     </row>
     <row r="6">
@@ -2851,28 +2851,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>88.60545121189436</v>
+        <v>125.1069121983568</v>
       </c>
       <c r="AB6" t="n">
-        <v>121.2338873446886</v>
+        <v>171.1767965971487</v>
       </c>
       <c r="AC6" t="n">
-        <v>109.6634952893728</v>
+        <v>154.8399233781073</v>
       </c>
       <c r="AD6" t="n">
-        <v>88605.45121189437</v>
+        <v>125106.9121983568</v>
       </c>
       <c r="AE6" t="n">
-        <v>121233.8873446886</v>
+        <v>171176.7965971487</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.284967184795454e-06</v>
+        <v>6.078049343680317e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.62890625</v>
       </c>
       <c r="AH6" t="n">
-        <v>109663.4952893728</v>
+        <v>154839.9233781073</v>
       </c>
     </row>
     <row r="7">
@@ -2957,28 +2957,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>88.4126173278207</v>
+        <v>124.9140783142831</v>
       </c>
       <c r="AB7" t="n">
-        <v>120.9700435172686</v>
+        <v>170.9129527697287</v>
       </c>
       <c r="AC7" t="n">
-        <v>109.4248323465345</v>
+        <v>154.6012604352691</v>
       </c>
       <c r="AD7" t="n">
-        <v>88412.6173278207</v>
+        <v>124914.0783142831</v>
       </c>
       <c r="AE7" t="n">
-        <v>120970.0435172686</v>
+        <v>170912.9527697287</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.282913132056178e-06</v>
+        <v>6.074248808332011e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.62890625</v>
       </c>
       <c r="AH7" t="n">
-        <v>109424.8323465345</v>
+        <v>154601.2604352691</v>
       </c>
     </row>
   </sheetData>
@@ -3254,28 +3254,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.1359799224218</v>
+        <v>146.427116320573</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.0611507031921</v>
+        <v>200.3480404581734</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.5486478992864</v>
+        <v>181.227104667143</v>
       </c>
       <c r="AD2" t="n">
-        <v>111135.9799224218</v>
+        <v>146427.116320573</v>
       </c>
       <c r="AE2" t="n">
-        <v>152061.1507031921</v>
+        <v>200348.0404581733</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.757574467307248e-06</v>
+        <v>5.256362517769545e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>137548.6478992864</v>
+        <v>181227.104667143</v>
       </c>
     </row>
     <row r="3">
@@ -3360,28 +3360,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.7815785876687</v>
+        <v>123.9873741312483</v>
       </c>
       <c r="AB3" t="n">
-        <v>121.4748725904143</v>
+        <v>169.644995223198</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.8814812414714</v>
+        <v>153.4543149773893</v>
       </c>
       <c r="AD3" t="n">
-        <v>88781.5785876687</v>
+        <v>123987.3741312483</v>
       </c>
       <c r="AE3" t="n">
-        <v>121474.8725904143</v>
+        <v>169644.9952231979</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.240165694287534e-06</v>
+        <v>6.176255875855587e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.850260416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>109881.4812414715</v>
+        <v>153454.3149773893</v>
       </c>
     </row>
     <row r="4">
@@ -3466,28 +3466,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>84.95361376269095</v>
+        <v>108.5663788826967</v>
       </c>
       <c r="AB4" t="n">
-        <v>116.2372822389931</v>
+        <v>148.5453091978449</v>
       </c>
       <c r="AC4" t="n">
-        <v>105.143759162184</v>
+        <v>134.3683533726939</v>
       </c>
       <c r="AD4" t="n">
-        <v>84953.61376269095</v>
+        <v>108566.3788826967</v>
       </c>
       <c r="AE4" t="n">
-        <v>116237.2822389931</v>
+        <v>148545.3091978449</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.414937799805563e-06</v>
+        <v>6.509398481971206e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.602864583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>105143.759162184</v>
+        <v>134368.3533726939</v>
       </c>
     </row>
     <row r="5">
@@ -3572,28 +3572,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>82.9226575655867</v>
+        <v>106.3648304850003</v>
       </c>
       <c r="AB5" t="n">
-        <v>113.4584383706527</v>
+        <v>145.5330535546576</v>
       </c>
       <c r="AC5" t="n">
-        <v>102.6301242525052</v>
+        <v>131.643583180364</v>
       </c>
       <c r="AD5" t="n">
-        <v>82922.65756558671</v>
+        <v>106364.8304850003</v>
       </c>
       <c r="AE5" t="n">
-        <v>113458.4383706527</v>
+        <v>145533.0535546576</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.49288258518995e-06</v>
+        <v>6.657973272319537e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.498697916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>102630.1242525052</v>
+        <v>131643.583180364</v>
       </c>
     </row>
     <row r="6">
@@ -3678,28 +3678,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>83.03382128136799</v>
+        <v>106.4759942007816</v>
       </c>
       <c r="AB6" t="n">
-        <v>113.6105374707816</v>
+        <v>145.6851526547865</v>
       </c>
       <c r="AC6" t="n">
-        <v>102.7677072279903</v>
+        <v>131.7811661558491</v>
       </c>
       <c r="AD6" t="n">
-        <v>83033.82128136799</v>
+        <v>106475.9942007816</v>
       </c>
       <c r="AE6" t="n">
-        <v>113610.5374707816</v>
+        <v>145685.1526547865</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.493148196292561e-06</v>
+        <v>6.658479568073513e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.498697916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>102767.7072279903</v>
+        <v>131781.1661558491</v>
       </c>
     </row>
   </sheetData>
@@ -3975,28 +3975,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.70124153823093</v>
+        <v>91.54287517459184</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.73655779121057</v>
+        <v>125.2530004004485</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.50415648625292</v>
+        <v>113.2990298359529</v>
       </c>
       <c r="AD2" t="n">
-        <v>70701.24153823093</v>
+        <v>91542.87517459184</v>
       </c>
       <c r="AE2" t="n">
-        <v>96736.55779121057</v>
+        <v>125253.0004004485</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.91770219432085e-06</v>
+        <v>8.343680399743565e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.479166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>87504.15648625292</v>
+        <v>113299.0298359529</v>
       </c>
     </row>
     <row r="3">
@@ -4081,28 +4081,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.88757665454055</v>
+        <v>90.72921029090146</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.62326560098472</v>
+        <v>124.1397082102227</v>
       </c>
       <c r="AC3" t="n">
-        <v>86.49711534014646</v>
+        <v>112.2919886898464</v>
       </c>
       <c r="AD3" t="n">
-        <v>69887.57665454055</v>
+        <v>90729.21029090146</v>
       </c>
       <c r="AE3" t="n">
-        <v>95623.26560098473</v>
+        <v>124139.7082102227</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.997779572359127e-06</v>
+        <v>8.514224258480294e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.388020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>86497.11534014647</v>
+        <v>112291.9886898464</v>
       </c>
     </row>
   </sheetData>
@@ -4378,28 +4378,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.40617070649238</v>
+        <v>113.2362179905213</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.0152700304767</v>
+        <v>154.9347890839287</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.51556706619742</v>
+        <v>140.1480302661432</v>
       </c>
       <c r="AD2" t="n">
-        <v>80406.17070649237</v>
+        <v>113236.2179905213</v>
       </c>
       <c r="AE2" t="n">
-        <v>110015.2700304767</v>
+        <v>154934.7890839287</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.448084409404951e-06</v>
+        <v>7.000803463046508e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.869791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>99515.56706619741</v>
+        <v>140148.0302661432</v>
       </c>
     </row>
     <row r="3">
@@ -4484,28 +4484,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.60477851401717</v>
+        <v>96.46311926039701</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.0775492933759</v>
+        <v>131.9850954244931</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.33541125558196</v>
+        <v>119.3886231594595</v>
       </c>
       <c r="AD3" t="n">
-        <v>74604.77851401718</v>
+        <v>96463.11926039701</v>
       </c>
       <c r="AE3" t="n">
-        <v>102077.5492933759</v>
+        <v>131985.0954244931</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.817615003886702e-06</v>
+        <v>7.751078328271147e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.39453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>92335.41125558196</v>
+        <v>119388.6231594595</v>
       </c>
     </row>
     <row r="4">
@@ -4590,28 +4590,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>74.73991918242456</v>
+        <v>96.59825992880438</v>
       </c>
       <c r="AB4" t="n">
-        <v>102.2624547178763</v>
+        <v>132.1700008489935</v>
       </c>
       <c r="AC4" t="n">
-        <v>92.50266956588449</v>
+        <v>119.555881469762</v>
       </c>
       <c r="AD4" t="n">
-        <v>74739.91918242456</v>
+        <v>96598.25992880439</v>
       </c>
       <c r="AE4" t="n">
-        <v>102262.4547178763</v>
+        <v>132170.0008489935</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.816687053175113e-06</v>
+        <v>7.749194267504679e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.39453125</v>
       </c>
       <c r="AH4" t="n">
-        <v>92502.66956588448</v>
+        <v>119555.881469762</v>
       </c>
     </row>
   </sheetData>
@@ -4887,28 +4887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.14428491733</v>
+        <v>86.15201016529612</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.50152870375952</v>
+        <v>117.8769810665547</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.86418982398793</v>
+        <v>106.6269674349753</v>
       </c>
       <c r="AD2" t="n">
-        <v>66144.28491732999</v>
+        <v>86152.01016529612</v>
       </c>
       <c r="AE2" t="n">
-        <v>90501.52870375951</v>
+        <v>117876.9810665547</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.082883129886552e-06</v>
+        <v>9.091783245025075e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.459635416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>81864.18982398792</v>
+        <v>106626.9674349753</v>
       </c>
     </row>
   </sheetData>
@@ -5184,28 +5184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.7092434411938</v>
+        <v>150.3409344239688</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.9502474908342</v>
+        <v>205.7030990527054</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.9711361514079</v>
+        <v>186.0710839852866</v>
       </c>
       <c r="AD2" t="n">
-        <v>114709.2434411938</v>
+        <v>150340.9344239688</v>
       </c>
       <c r="AE2" t="n">
-        <v>156950.2474908342</v>
+        <v>205703.0990527054</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.659985728967882e-06</v>
+        <v>5.029404375387681e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>141971.1361514079</v>
+        <v>186071.0839852866</v>
       </c>
     </row>
     <row r="3">
@@ -5290,28 +5290,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>91.18701321762052</v>
+        <v>126.7333633458239</v>
       </c>
       <c r="AB3" t="n">
-        <v>124.766094371399</v>
+        <v>173.4021788110726</v>
       </c>
       <c r="AC3" t="n">
-        <v>112.8585934349388</v>
+        <v>156.8529182368787</v>
       </c>
       <c r="AD3" t="n">
-        <v>91187.01321762052</v>
+        <v>126733.3633458239</v>
       </c>
       <c r="AE3" t="n">
-        <v>124766.094371399</v>
+        <v>173402.1788110726</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.157864111077345e-06</v>
+        <v>5.970774731672966e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.934895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>112858.5934349388</v>
+        <v>156852.9182368786</v>
       </c>
     </row>
     <row r="4">
@@ -5396,28 +5396,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>87.42142366720259</v>
+        <v>122.967773795406</v>
       </c>
       <c r="AB4" t="n">
-        <v>119.6138486224335</v>
+        <v>168.2499330621071</v>
       </c>
       <c r="AC4" t="n">
-        <v>108.1980707890305</v>
+        <v>152.1923955909704</v>
       </c>
       <c r="AD4" t="n">
-        <v>87421.42366720259</v>
+        <v>122967.773795406</v>
       </c>
       <c r="AE4" t="n">
-        <v>119613.8486224335</v>
+        <v>168249.9330621071</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.324437763767144e-06</v>
+        <v>6.285726142328636e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.6875</v>
       </c>
       <c r="AH4" t="n">
-        <v>108198.0707890305</v>
+        <v>152192.3955909704</v>
       </c>
     </row>
     <row r="5">
@@ -5502,28 +5502,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>84.70928762583482</v>
+        <v>108.5490891355898</v>
       </c>
       <c r="AB5" t="n">
-        <v>115.9029844396383</v>
+        <v>148.5216526030834</v>
       </c>
       <c r="AC5" t="n">
-        <v>104.8413662756096</v>
+        <v>134.3469545301342</v>
       </c>
       <c r="AD5" t="n">
-        <v>84709.28762583481</v>
+        <v>108549.0891355898</v>
       </c>
       <c r="AE5" t="n">
-        <v>115902.9844396383</v>
+        <v>148521.6526030834</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.425157273057672e-06</v>
+        <v>6.476162931216686e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.55078125</v>
       </c>
       <c r="AH5" t="n">
-        <v>104841.3662756096</v>
+        <v>134346.9545301342</v>
       </c>
     </row>
     <row r="6">
@@ -5608,28 +5608,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>84.69407972122178</v>
+        <v>108.5338812309768</v>
       </c>
       <c r="AB6" t="n">
-        <v>115.8821763136214</v>
+        <v>148.5008444770665</v>
       </c>
       <c r="AC6" t="n">
-        <v>104.8225440479353</v>
+        <v>134.3281323024599</v>
       </c>
       <c r="AD6" t="n">
-        <v>84694.07972122179</v>
+        <v>108533.8812309768</v>
       </c>
       <c r="AE6" t="n">
-        <v>115882.1763136214</v>
+        <v>148500.8444770665</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.425157273057672e-06</v>
+        <v>6.476162931216686e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.55078125</v>
       </c>
       <c r="AH6" t="n">
-        <v>104822.5440479353</v>
+        <v>134328.1323024599</v>
       </c>
     </row>
   </sheetData>
@@ -5905,28 +5905,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.05968840298843</v>
+        <v>83.74420722715732</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.64929178693124</v>
+        <v>114.5825188618261</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.28416639536118</v>
+        <v>103.6469240792583</v>
       </c>
       <c r="AD2" t="n">
-        <v>64059.68840298842</v>
+        <v>83744.20722715731</v>
       </c>
       <c r="AE2" t="n">
-        <v>87649.29178693124</v>
+        <v>114582.5188618261</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.107756014971502e-06</v>
+        <v>9.41730484957782e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.537760416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>79284.16639536119</v>
+        <v>103646.9240792583</v>
       </c>
     </row>
   </sheetData>
@@ -6202,28 +6202,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.3125581085393</v>
+        <v>124.103228950404</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.6203115986607</v>
+        <v>169.8035128979206</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.390583614551</v>
+        <v>153.5977039477174</v>
       </c>
       <c r="AD2" t="n">
-        <v>101312.5581085393</v>
+        <v>124103.228950404</v>
       </c>
       <c r="AE2" t="n">
-        <v>138620.3115986607</v>
+        <v>169803.5128979206</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.066354931818382e-06</v>
+        <v>6.010013289540694e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.279947916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>125390.5836145511</v>
+        <v>153597.7039477174</v>
       </c>
     </row>
     <row r="3">
@@ -6308,28 +6308,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.54027225227662</v>
+        <v>104.4161944401619</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.566997798447</v>
+        <v>142.8668437503561</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.9192001138567</v>
+        <v>129.2318326977353</v>
       </c>
       <c r="AD3" t="n">
-        <v>81540.27225227663</v>
+        <v>104416.1944401619</v>
       </c>
       <c r="AE3" t="n">
-        <v>111566.997798447</v>
+        <v>142866.8437503561</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.525783238614835e-06</v>
+        <v>6.910486421592782e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.596354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>100919.2001138567</v>
+        <v>129231.8326977353</v>
       </c>
     </row>
     <row r="4">
@@ -6414,28 +6414,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>79.05186832019908</v>
+        <v>101.7571983074922</v>
       </c>
       <c r="AB4" t="n">
-        <v>108.1622537579467</v>
+        <v>139.2286879350089</v>
       </c>
       <c r="AC4" t="n">
-        <v>97.83940006599236</v>
+        <v>125.9408973672199</v>
       </c>
       <c r="AD4" t="n">
-        <v>79051.86832019908</v>
+        <v>101757.1983074922</v>
       </c>
       <c r="AE4" t="n">
-        <v>108162.2537579467</v>
+        <v>139228.6879350089</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.644577312636227e-06</v>
+        <v>7.143321164948427e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.446614583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>97839.40006599236</v>
+        <v>125940.8973672199</v>
       </c>
     </row>
     <row r="5">
@@ -6520,28 +6520,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>79.20872135148251</v>
+        <v>101.9140513387756</v>
       </c>
       <c r="AB5" t="n">
-        <v>108.3768669952159</v>
+        <v>139.4433011722782</v>
       </c>
       <c r="AC5" t="n">
-        <v>98.03353091710827</v>
+        <v>126.1350282183358</v>
       </c>
       <c r="AD5" t="n">
-        <v>79208.72135148251</v>
+        <v>101914.0513387756</v>
       </c>
       <c r="AE5" t="n">
-        <v>108376.8669952159</v>
+        <v>139443.3011722782</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.641766060203889e-06</v>
+        <v>7.137811149032366e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.446614583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>98033.53091710826</v>
+        <v>126135.0282183358</v>
       </c>
     </row>
   </sheetData>
@@ -6817,28 +6817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.8848253340051</v>
+        <v>142.8224571320183</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.612777564505</v>
+        <v>195.4159867300554</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.5248212496232</v>
+        <v>176.7657592246542</v>
       </c>
       <c r="AD2" t="n">
-        <v>107884.8253340051</v>
+        <v>142822.4571320183</v>
       </c>
       <c r="AE2" t="n">
-        <v>147612.777564505</v>
+        <v>195415.9867300554</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.854213142302908e-06</v>
+        <v>5.487804403215379e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.559895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>133524.8212496232</v>
+        <v>176765.7592246542</v>
       </c>
     </row>
     <row r="3">
@@ -6923,28 +6923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.40737746925745</v>
+        <v>121.2596684126991</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.2263858778447</v>
+        <v>165.9128279211975</v>
       </c>
       <c r="AC3" t="n">
-        <v>106.9430255414687</v>
+        <v>150.0783404845608</v>
       </c>
       <c r="AD3" t="n">
-        <v>86407.37746925745</v>
+        <v>121259.6684126991</v>
       </c>
       <c r="AE3" t="n">
-        <v>118226.3858778447</v>
+        <v>165912.8279211975</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.329517194345444e-06</v>
+        <v>6.401672968602399e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>106943.0255414687</v>
+        <v>150078.3404845608</v>
       </c>
     </row>
     <row r="4">
@@ -7029,28 +7029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.58119331452201</v>
+        <v>105.9582887011025</v>
       </c>
       <c r="AB4" t="n">
-        <v>112.9912319180066</v>
+        <v>144.9768051505712</v>
       </c>
       <c r="AC4" t="n">
-        <v>102.2075073279712</v>
+        <v>131.140422343264</v>
       </c>
       <c r="AD4" t="n">
-        <v>82581.19331452201</v>
+        <v>105958.2887011025</v>
       </c>
       <c r="AE4" t="n">
-        <v>112991.2319180066</v>
+        <v>144976.8051505712</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.511238908688594e-06</v>
+        <v>6.751069868697799e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.518229166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>102207.5073279712</v>
+        <v>131140.422343264</v>
       </c>
     </row>
     <row r="5">
@@ -7135,28 +7135,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>81.95615515990983</v>
+        <v>105.1626583458981</v>
       </c>
       <c r="AB5" t="n">
-        <v>112.1360271401294</v>
+        <v>143.8881885978471</v>
       </c>
       <c r="AC5" t="n">
-        <v>101.4339220938068</v>
+        <v>130.1557018264486</v>
       </c>
       <c r="AD5" t="n">
-        <v>81956.15515990983</v>
+        <v>105162.6583458981</v>
       </c>
       <c r="AE5" t="n">
-        <v>112136.0271401294</v>
+        <v>143888.1885978471</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.529593898749009e-06</v>
+        <v>6.786361064643049e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.498697916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>101433.9220938068</v>
+        <v>130155.7018264486</v>
       </c>
     </row>
   </sheetData>
@@ -7432,28 +7432,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.1039126832683</v>
+        <v>170.2972276553559</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.4868895802467</v>
+        <v>233.0081798613966</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.9751583642264</v>
+        <v>210.7702062045265</v>
       </c>
       <c r="AD2" t="n">
-        <v>134103.9126832683</v>
+        <v>170297.2276553559</v>
       </c>
       <c r="AE2" t="n">
-        <v>183486.8895802467</v>
+        <v>233008.1798613966</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.482238210640708e-06</v>
+        <v>4.62422151753126e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>165975.1583642264</v>
+        <v>210770.2062045265</v>
       </c>
     </row>
     <row r="3">
@@ -7538,28 +7538,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.1296119480211</v>
+        <v>132.3154123353109</v>
       </c>
       <c r="AB3" t="n">
-        <v>147.9477054090247</v>
+        <v>181.0397845011059</v>
       </c>
       <c r="AC3" t="n">
-        <v>133.8277840507363</v>
+        <v>163.7616015593045</v>
       </c>
       <c r="AD3" t="n">
-        <v>108129.611948021</v>
+        <v>132315.4123353109</v>
       </c>
       <c r="AE3" t="n">
-        <v>147947.7054090247</v>
+        <v>181039.7845011059</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.994774368407906e-06</v>
+        <v>5.579037505416693e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.1171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>133827.7840507363</v>
+        <v>163761.6015593045</v>
       </c>
     </row>
     <row r="4">
@@ -7644,28 +7644,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>91.63561544454947</v>
+        <v>127.828840908086</v>
       </c>
       <c r="AB4" t="n">
-        <v>125.3798917292164</v>
+        <v>174.901059540818</v>
       </c>
       <c r="AC4" t="n">
-        <v>113.4138108343963</v>
+        <v>158.2087478934699</v>
       </c>
       <c r="AD4" t="n">
-        <v>91635.61544454948</v>
+        <v>127828.840908086</v>
       </c>
       <c r="AE4" t="n">
-        <v>125379.8917292164</v>
+        <v>174901.059540818</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.183422684280905e-06</v>
+        <v>5.930475009587891e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.811197916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>113413.8108343963</v>
+        <v>158208.7478934699</v>
       </c>
     </row>
     <row r="5">
@@ -7750,28 +7750,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>88.68427165416681</v>
+        <v>124.8774971177033</v>
       </c>
       <c r="AB5" t="n">
-        <v>121.3417329511182</v>
+        <v>170.8629007627197</v>
       </c>
       <c r="AC5" t="n">
-        <v>109.7610482624871</v>
+        <v>154.5559853215607</v>
       </c>
       <c r="AD5" t="n">
-        <v>88684.27165416681</v>
+        <v>124877.4971177033</v>
       </c>
       <c r="AE5" t="n">
-        <v>121341.7329511182</v>
+        <v>170862.9007627197</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.286311071074696e-06</v>
+        <v>6.122148270468491e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.661458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>109761.048262487</v>
+        <v>154555.9853215606</v>
       </c>
     </row>
     <row r="6">
@@ -7856,28 +7856,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>87.16478138472</v>
+        <v>111.4358331180304</v>
       </c>
       <c r="AB6" t="n">
-        <v>119.2626993292826</v>
+        <v>152.471423074013</v>
       </c>
       <c r="AC6" t="n">
-        <v>107.8804346915767</v>
+        <v>137.9197644508571</v>
       </c>
       <c r="AD6" t="n">
-        <v>87164.78138472</v>
+        <v>111435.8331180304</v>
       </c>
       <c r="AE6" t="n">
-        <v>119262.6993292826</v>
+        <v>152471.423074013</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.338637568268703e-06</v>
+        <v>6.219628565963221e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.58984375</v>
       </c>
       <c r="AH6" t="n">
-        <v>107880.4346915767</v>
+        <v>137919.7644508571</v>
       </c>
     </row>
     <row r="7">
@@ -7962,28 +7962,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>87.30225824758702</v>
+        <v>111.5733099808974</v>
       </c>
       <c r="AB7" t="n">
-        <v>119.4508012381082</v>
+        <v>152.6595249828387</v>
       </c>
       <c r="AC7" t="n">
-        <v>108.0505844182268</v>
+        <v>138.0899141775072</v>
       </c>
       <c r="AD7" t="n">
-        <v>87302.25824758701</v>
+        <v>111573.3099808974</v>
       </c>
       <c r="AE7" t="n">
-        <v>119450.8012381082</v>
+        <v>152659.5249828387</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.334943656371465e-06</v>
+        <v>6.212747088268675e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.596354166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>108050.5844182268</v>
+        <v>138089.9141775072</v>
       </c>
     </row>
   </sheetData>
@@ -8259,28 +8259,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.34585691183037</v>
+        <v>116.6219665245854</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.0374783864205</v>
+        <v>159.5673195969163</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.1539015018561</v>
+        <v>144.3384385687701</v>
       </c>
       <c r="AD2" t="n">
-        <v>83345.85691183037</v>
+        <v>116621.9665245854</v>
       </c>
       <c r="AE2" t="n">
-        <v>114037.4783864205</v>
+        <v>159567.3195969163</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.323427157726604e-06</v>
+        <v>6.661800947079697e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.986979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>103153.9015018561</v>
+        <v>144338.4385687701</v>
       </c>
     </row>
     <row r="3">
@@ -8365,28 +8365,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.63583083845634</v>
+        <v>98.79154647065356</v>
       </c>
       <c r="AB3" t="n">
-        <v>104.8565246873768</v>
+        <v>135.1709522565232</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.84916513829675</v>
+        <v>122.2704262868198</v>
       </c>
       <c r="AD3" t="n">
-        <v>76635.83083845634</v>
+        <v>98791.54647065356</v>
       </c>
       <c r="AE3" t="n">
-        <v>104856.5246873768</v>
+        <v>135170.9522565232</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.732546190147811e-06</v>
+        <v>7.481878965433584e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.440104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>94849.16513829675</v>
+        <v>122270.4262868198</v>
       </c>
     </row>
     <row r="4">
@@ -8471,28 +8471,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>76.32642997200659</v>
+        <v>98.48214560420381</v>
       </c>
       <c r="AB4" t="n">
-        <v>104.4331887720976</v>
+        <v>134.747616341244</v>
       </c>
       <c r="AC4" t="n">
-        <v>94.46623180861593</v>
+        <v>121.887492957139</v>
       </c>
       <c r="AD4" t="n">
-        <v>76326.42997200659</v>
+        <v>98482.1456042038</v>
       </c>
       <c r="AE4" t="n">
-        <v>104433.1887720976</v>
+        <v>134747.616341244</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.744585840638399e-06</v>
+        <v>7.506012412996665e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.427083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>94466.23180861594</v>
+        <v>121887.492957139</v>
       </c>
     </row>
   </sheetData>
@@ -8768,28 +8768,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.97780398710289</v>
+        <v>95.35364285541831</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.2196950854882</v>
+        <v>130.4670608605575</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.55942944928884</v>
+        <v>118.0154676837305</v>
       </c>
       <c r="AD2" t="n">
-        <v>73977.80398710289</v>
+        <v>95353.64285541831</v>
       </c>
       <c r="AE2" t="n">
-        <v>101219.6950854882</v>
+        <v>130467.0608605575</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.750280352017062e-06</v>
+        <v>7.845821031140837e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.602864583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>91559.42944928884</v>
+        <v>118015.4676837305</v>
       </c>
     </row>
     <row r="3">
@@ -8874,28 +8874,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.50914642134757</v>
+        <v>92.7143930890708</v>
       </c>
       <c r="AB3" t="n">
-        <v>97.84196889453813</v>
+        <v>126.8559228947605</v>
       </c>
       <c r="AC3" t="n">
-        <v>88.50406870533347</v>
+        <v>114.7489716571241</v>
       </c>
       <c r="AD3" t="n">
-        <v>71509.14642134757</v>
+        <v>92714.3930890708</v>
       </c>
       <c r="AE3" t="n">
-        <v>97841.96889453812</v>
+        <v>126855.9228947605</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.937631305880828e-06</v>
+        <v>8.237770943162226e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.381510416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>88504.06870533347</v>
+        <v>114748.9716571241</v>
       </c>
     </row>
   </sheetData>
@@ -15352,28 +15352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.2068702022063</v>
+        <v>88.65238926197344</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.32364888536654</v>
+        <v>121.2981100555674</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.41697081633382</v>
+        <v>109.7215886748624</v>
       </c>
       <c r="AD2" t="n">
-        <v>68206.87020220631</v>
+        <v>88652.38926197344</v>
       </c>
       <c r="AE2" t="n">
-        <v>93323.64888536654</v>
+        <v>121298.1100555674</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.025628506461485e-06</v>
+        <v>8.751135756071408e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.43359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>84416.97081633382</v>
+        <v>109721.5886748624</v>
       </c>
     </row>
     <row r="3">
@@ -15458,28 +15458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>68.19216627973557</v>
+        <v>88.6376853395027</v>
       </c>
       <c r="AB3" t="n">
-        <v>93.3035303299508</v>
+        <v>121.2779915001516</v>
       </c>
       <c r="AC3" t="n">
-        <v>84.3987723476104</v>
+        <v>109.703390206139</v>
       </c>
       <c r="AD3" t="n">
-        <v>68192.16627973557</v>
+        <v>88637.6853395027</v>
       </c>
       <c r="AE3" t="n">
-        <v>93303.53032995081</v>
+        <v>121277.9915001516</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.041619004715686e-06</v>
+        <v>8.785896792964185e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.420572916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>84398.7723476104</v>
+        <v>109703.390206139</v>
       </c>
     </row>
   </sheetData>
@@ -15755,28 +15755,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.60331944653092</v>
+        <v>90.05511061508064</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.28837941335759</v>
+        <v>123.2173752945862</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.24401478165019</v>
+        <v>111.4576819331757</v>
       </c>
       <c r="AD2" t="n">
-        <v>61603.31944653092</v>
+        <v>90055.11061508063</v>
       </c>
       <c r="AE2" t="n">
-        <v>84288.37941335759</v>
+        <v>123217.3752945863</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.083334835715453e-06</v>
+        <v>9.712322007842236e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.694010416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>76244.0147816502</v>
+        <v>111457.6819331757</v>
       </c>
     </row>
   </sheetData>
@@ -16052,28 +16052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.4299909102459</v>
+        <v>138.829167613114</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.8857206893823</v>
+        <v>189.9521918387931</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.2489080481947</v>
+        <v>171.8234212493279</v>
       </c>
       <c r="AD2" t="n">
-        <v>104429.9909102459</v>
+        <v>138829.1676131139</v>
       </c>
       <c r="AE2" t="n">
-        <v>142885.7206893823</v>
+        <v>189952.1918387931</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.963383378848186e-06</v>
+        <v>5.750677168383748e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.41015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>129248.9080481947</v>
+        <v>171823.4212493279</v>
       </c>
     </row>
     <row r="3">
@@ -16158,28 +16158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.03104026544366</v>
+        <v>118.5154683143323</v>
       </c>
       <c r="AB3" t="n">
-        <v>114.9749764789899</v>
+        <v>162.15809228105</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.0019260922578</v>
+        <v>146.6819515441032</v>
       </c>
       <c r="AD3" t="n">
-        <v>84031.04026544366</v>
+        <v>118515.4683143323</v>
       </c>
       <c r="AE3" t="n">
-        <v>114974.9764789899</v>
+        <v>162158.09228105</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.424623296125232e-06</v>
+        <v>6.645749294509824e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.680989583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>104001.9260922578</v>
+        <v>146681.9515441032</v>
       </c>
     </row>
     <row r="4">
@@ -16264,28 +16264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>80.69941817644694</v>
+        <v>103.6606794327332</v>
       </c>
       <c r="AB4" t="n">
-        <v>110.4165041560337</v>
+        <v>141.8331147862229</v>
       </c>
       <c r="AC4" t="n">
-        <v>99.87850796994698</v>
+        <v>128.2967613750909</v>
       </c>
       <c r="AD4" t="n">
-        <v>80699.41817644694</v>
+        <v>103660.6794327332</v>
       </c>
       <c r="AE4" t="n">
-        <v>110416.5041560337</v>
+        <v>141833.1147862229</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.571451951937365e-06</v>
+        <v>6.930681782378301e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.485677083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>99878.50796994698</v>
+        <v>128296.7613750909</v>
       </c>
     </row>
     <row r="5">
@@ -16370,28 +16370,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>80.32738672045332</v>
+        <v>103.2886479767396</v>
       </c>
       <c r="AB5" t="n">
-        <v>109.907474305074</v>
+        <v>141.3240849352632</v>
       </c>
       <c r="AC5" t="n">
-        <v>99.41805921353485</v>
+        <v>127.8363126186788</v>
       </c>
       <c r="AD5" t="n">
-        <v>80327.38672045332</v>
+        <v>103288.6479767396</v>
       </c>
       <c r="AE5" t="n">
-        <v>109907.474305074</v>
+        <v>141324.0849352632</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.59651425435466e-06</v>
+        <v>6.979317139965508e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.459635416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>99418.05921353484</v>
+        <v>127836.3126186788</v>
       </c>
     </row>
   </sheetData>
@@ -16667,28 +16667,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.4363155305598</v>
+        <v>166.3115562969122</v>
       </c>
       <c r="AB2" t="n">
-        <v>178.4687213529466</v>
+        <v>227.5548084733662</v>
       </c>
       <c r="AC2" t="n">
-        <v>161.4359170694949</v>
+        <v>205.8372969279133</v>
       </c>
       <c r="AD2" t="n">
-        <v>130436.3155305598</v>
+        <v>166311.5562969122</v>
       </c>
       <c r="AE2" t="n">
-        <v>178468.7213529466</v>
+        <v>227554.8084733662</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.567129071096263e-06</v>
+        <v>4.816941040472135e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>161435.9170694949</v>
+        <v>205837.2969279133</v>
       </c>
     </row>
     <row r="3">
@@ -16773,28 +16773,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.429120301401</v>
+        <v>129.4028712182007</v>
       </c>
       <c r="AB3" t="n">
-        <v>144.2527736008379</v>
+        <v>177.0547172524322</v>
       </c>
       <c r="AC3" t="n">
-        <v>130.4854913484523</v>
+        <v>160.1568635357659</v>
       </c>
       <c r="AD3" t="n">
-        <v>105429.120301401</v>
+        <v>129402.8712182007</v>
       </c>
       <c r="AE3" t="n">
-        <v>144252.7736008379</v>
+        <v>177054.7172524322</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.082244020136668e-06</v>
+        <v>5.783498728019118e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.013020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>130485.4913484523</v>
+        <v>160156.8635357659</v>
       </c>
     </row>
     <row r="4">
@@ -16879,28 +16879,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>89.13334804606649</v>
+        <v>125.0084993038678</v>
       </c>
       <c r="AB4" t="n">
-        <v>121.9561790823672</v>
+        <v>171.0421437332384</v>
       </c>
       <c r="AC4" t="n">
-        <v>110.3168525173504</v>
+        <v>154.7181215945422</v>
       </c>
       <c r="AD4" t="n">
-        <v>89133.34804606649</v>
+        <v>125008.4993038678</v>
       </c>
       <c r="AE4" t="n">
-        <v>121956.1790823672</v>
+        <v>171042.1437332385</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.267621821997384e-06</v>
+        <v>6.131340194904952e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.7265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>110316.8525173504</v>
+        <v>154718.1215945422</v>
       </c>
     </row>
     <row r="5">
@@ -16985,28 +16985,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>86.36576443398046</v>
+        <v>110.4247666968007</v>
       </c>
       <c r="AB5" t="n">
-        <v>118.1694490871412</v>
+        <v>151.0880373913847</v>
       </c>
       <c r="AC5" t="n">
-        <v>106.8915227181586</v>
+        <v>136.6684071561845</v>
       </c>
       <c r="AD5" t="n">
-        <v>86365.76443398045</v>
+        <v>110424.7666968007</v>
       </c>
       <c r="AE5" t="n">
-        <v>118169.4490871412</v>
+        <v>151088.0373913847</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.368661501818831e-06</v>
+        <v>6.320930264967247e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>106891.5227181586</v>
+        <v>136668.4071561845</v>
       </c>
     </row>
     <row r="6">
@@ -17091,28 +17091,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>85.63376436823637</v>
+        <v>109.6927666310566</v>
       </c>
       <c r="AB6" t="n">
-        <v>117.1678943036269</v>
+        <v>150.0864826078705</v>
       </c>
       <c r="AC6" t="n">
-        <v>105.9855549174917</v>
+        <v>135.7624393555175</v>
       </c>
       <c r="AD6" t="n">
-        <v>85633.76436823637</v>
+        <v>109692.7666310566</v>
       </c>
       <c r="AE6" t="n">
-        <v>117167.8943036269</v>
+        <v>150086.4826078705</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.387094897268764e-06</v>
+        <v>6.355518544948088e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.557291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>105985.5549174917</v>
+        <v>135762.4393555175</v>
       </c>
     </row>
   </sheetData>
@@ -17388,28 +17388,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.1972063312131</v>
+        <v>86.51768176623067</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.31042635073374</v>
+        <v>118.3773090832455</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.40501022184844</v>
+        <v>107.0795448479682</v>
       </c>
       <c r="AD2" t="n">
-        <v>68197.20633121309</v>
+        <v>86517.68176623067</v>
       </c>
       <c r="AE2" t="n">
-        <v>93310.42635073373</v>
+        <v>118377.3090832455</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.883135377396732e-06</v>
+        <v>9.711426889544039e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.110677083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>84405.01022184844</v>
+        <v>107079.5448479682</v>
       </c>
     </row>
   </sheetData>
@@ -17685,28 +17685,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.97648175863976</v>
+        <v>109.3329818270965</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.3226183048295</v>
+        <v>149.5942091665071</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.2707754350664</v>
+        <v>135.3171478004876</v>
       </c>
       <c r="AD2" t="n">
-        <v>76976.48175863977</v>
+        <v>109332.9818270965</v>
       </c>
       <c r="AE2" t="n">
-        <v>105322.6183048295</v>
+        <v>149594.2091665071</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.611197489448331e-06</v>
+        <v>7.436479254022409e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.713541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>95270.7754350664</v>
+        <v>135317.1478004876</v>
       </c>
     </row>
     <row r="3">
@@ -17791,28 +17791,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.11328283541401</v>
+        <v>94.65592543807898</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.0368191057667</v>
+        <v>129.5124131090343</v>
       </c>
       <c r="AC3" t="n">
-        <v>90.48944549289466</v>
+        <v>117.1519301737558</v>
       </c>
       <c r="AD3" t="n">
-        <v>73113.28283541401</v>
+        <v>94655.92543807898</v>
       </c>
       <c r="AE3" t="n">
-        <v>100036.8191057667</v>
+        <v>129512.4131090343</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.868897550502573e-06</v>
+        <v>7.967156726907709e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.39453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>90489.44549289467</v>
+        <v>117151.9301737558</v>
       </c>
     </row>
   </sheetData>
@@ -18088,28 +18088,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.74272800152089</v>
+        <v>120.2654321676187</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.7359125564513</v>
+        <v>164.5524700280718</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.9723447616314</v>
+        <v>148.8478132394803</v>
       </c>
       <c r="AD2" t="n">
-        <v>97742.72800152088</v>
+        <v>120265.4321676187</v>
       </c>
       <c r="AE2" t="n">
-        <v>133735.9125564513</v>
+        <v>164552.4700280718</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.200675854794479e-06</v>
+        <v>6.341128150485741e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.1171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>120972.3447616314</v>
+        <v>148847.8132394803</v>
       </c>
     </row>
     <row r="3">
@@ -18194,28 +18194,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.01946427148091</v>
+        <v>101.6274197835994</v>
       </c>
       <c r="AB3" t="n">
-        <v>108.1179171089248</v>
+        <v>139.0511192331944</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.79929484452623</v>
+        <v>125.7802755730873</v>
       </c>
       <c r="AD3" t="n">
-        <v>79019.46427148092</v>
+        <v>101627.4197835994</v>
       </c>
       <c r="AE3" t="n">
-        <v>108117.9171089248</v>
+        <v>139051.1192331944</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.63025845056078e-06</v>
+        <v>7.192210363916362e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.51171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>97799.29484452623</v>
+        <v>125780.2755730873</v>
       </c>
     </row>
     <row r="4">
@@ -18300,28 +18300,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>77.72658308591788</v>
+        <v>100.1639463974441</v>
       </c>
       <c r="AB4" t="n">
-        <v>106.3489400329459</v>
+        <v>137.0487303823687</v>
       </c>
       <c r="AC4" t="n">
-        <v>96.19914645790334</v>
+        <v>123.9689919038134</v>
       </c>
       <c r="AD4" t="n">
-        <v>77726.58308591788</v>
+        <v>100163.9463974441</v>
       </c>
       <c r="AE4" t="n">
-        <v>106348.9400329459</v>
+        <v>137048.7303823687</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.687915141402049e-06</v>
+        <v>7.306438883749059e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.440104166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>96199.14645790333</v>
+        <v>123968.9919038134</v>
       </c>
     </row>
   </sheetData>
